--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Red Datatype Comparis" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Red Datatype Comparis" sheetId="1" r:id="rId1"/>
+    <sheet name="R3 TO matrix" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -325,16 +328,235 @@
   </si>
   <si>
     <t>R2 converts the integer to string and makes url!</t>
+  </si>
+  <si>
+    <t>any-word!</t>
+  </si>
+  <si>
+    <t>any-string!</t>
+  </si>
+  <si>
+    <t>number!</t>
+  </si>
+  <si>
+    <t>any-list!</t>
+  </si>
+  <si>
+    <t>any-path!</t>
+  </si>
+  <si>
+    <t>any-function!</t>
+  </si>
+  <si>
+    <t>From \ To</t>
+  </si>
+  <si>
+    <t>convert to seconds</t>
+  </si>
+  <si>
+    <t>codepoint to number</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>number to codepoint</t>
+  </si>
+  <si>
+    <t>No conversion required</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>list of integers
+to tuple</t>
+  </si>
+  <si>
+    <t>LOAD string</t>
+  </si>
+  <si>
+    <t>FIRST string</t>
+  </si>
+  <si>
+    <t>TRUE =&gt; 1
+ FALSE =&gt; 0</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>list of datatype names or values to typeset</t>
+  </si>
+  <si>
+    <t>MAKE bitset! number</t>
+  </si>
+  <si>
+    <t>MAKE bitset! char</t>
+  </si>
+  <si>
+    <t>MAKE bitset! string</t>
+  </si>
+  <si>
+    <t>MAKE bitset! list</t>
+  </si>
+  <si>
+    <t>UNSET</t>
+  </si>
+  <si>
+    <t>number to binary in base 16</t>
+  </si>
+  <si>
+    <t>codepoint to binary in base 16</t>
+  </si>
+  <si>
+    <t>tuple to binary as bytes</t>
+  </si>
+  <si>
+    <t>string to binary as UTF-8</t>
+  </si>
+  <si>
+    <t>list of compatible values to binary</t>
+  </si>
+  <si>
+    <t>character to word</t>
+  </si>
+  <si>
+    <t>TRUE =&gt; 'TRUE
+FALSE =&gt; 'FALSE</t>
+  </si>
+  <si>
+    <t>FORM number</t>
+  </si>
+  <si>
+    <t>FORM time</t>
+  </si>
+  <si>
+    <t>FORM char</t>
+  </si>
+  <si>
+    <t>FORM tuple</t>
+  </si>
+  <si>
+    <t>FORM logic</t>
+  </si>
+  <si>
+    <t>FORM datatype</t>
+  </si>
+  <si>
+    <t>FORM bitset</t>
+  </si>
+  <si>
+    <t>FORM typeset</t>
+  </si>
+  <si>
+    <t>FORM unset (empty string)</t>
+  </si>
+  <si>
+    <t>FORM binary (decode UTF-8)</t>
+  </si>
+  <si>
+    <t>FORM word</t>
+  </si>
+  <si>
+    <t>FORM list</t>
+  </si>
+  <si>
+    <t>FORM path</t>
+  </si>
+  <si>
+    <t>FORM function</t>
+  </si>
+  <si>
+    <t>[number]</t>
+  </si>
+  <si>
+    <t>[time]</t>
+  </si>
+  <si>
+    <t>[char]</t>
+  </si>
+  <si>
+    <t>[tuple]</t>
+  </si>
+  <si>
+    <t>[none]</t>
+  </si>
+  <si>
+    <t>[logic]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a list of typeset's values </t>
+  </si>
+  <si>
+    <t>[datatype]</t>
+  </si>
+  <si>
+    <t>[bitset]</t>
+  </si>
+  <si>
+    <t>[unset!]</t>
+  </si>
+  <si>
+    <t>LOAD to string! binary</t>
+  </si>
+  <si>
+    <t>[word]</t>
+  </si>
+  <si>
+    <t>split path to list</t>
+  </si>
+  <si>
+    <t>[function]</t>
+  </si>
+  <si>
+    <t>to path! LOAD string</t>
+  </si>
+  <si>
+    <t>list values to path</t>
+  </si>
+  <si>
+    <t>number/</t>
+  </si>
+  <si>
+    <t>time/</t>
+  </si>
+  <si>
+    <t>char/</t>
+  </si>
+  <si>
+    <t>tuple/</t>
+  </si>
+  <si>
+    <t>none/</t>
+  </si>
+  <si>
+    <t>logic/</t>
+  </si>
+  <si>
+    <t>datatype/</t>
+  </si>
+  <si>
+    <t>typeset/</t>
+  </si>
+  <si>
+    <t>bitset/</t>
+  </si>
+  <si>
+    <t>unset/</t>
+  </si>
+  <si>
+    <t>word/</t>
+  </si>
+  <si>
+    <t>function/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -346,13 +568,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +604,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -491,75 +730,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,27 +856,82 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fff4f4f4"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFF4F4F4"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -715,7 +1057,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -724,7 +1066,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -733,7 +1075,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -797,8 +1139,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -806,7 +1148,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -814,7 +1156,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -833,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +1183,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -869,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,9 +1432,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1109,7 +1457,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1128,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,9 +1723,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1391,7 +1745,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1410,7 +1764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,7 +1872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1544,7 +1898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1570,7 +1924,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1596,7 +1950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,7 +1976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +2002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,1883 +2015,1835 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BF23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.3516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.3516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.3516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.3516" style="1" customWidth="1"/>
-    <col min="30" max="30" width="16.3516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.3516" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.3516" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.3516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="16.3516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.3516" style="1" customWidth="1"/>
-    <col min="36" max="36" width="16.3516" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.3516" style="1" customWidth="1"/>
-    <col min="38" max="38" width="16.3516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="16.3516" style="1" customWidth="1"/>
-    <col min="40" max="40" width="16.3516" style="1" customWidth="1"/>
-    <col min="41" max="41" width="16.3516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.3516" style="1" customWidth="1"/>
-    <col min="43" max="43" width="16.3516" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16.3516" style="1" customWidth="1"/>
-    <col min="45" max="45" width="16.3516" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16.3516" style="1" customWidth="1"/>
-    <col min="47" max="47" width="16.3516" style="1" customWidth="1"/>
-    <col min="48" max="48" width="16.3516" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16.3516" style="1" customWidth="1"/>
-    <col min="50" max="50" width="16.3516" style="1" customWidth="1"/>
-    <col min="51" max="51" width="16.3516" style="1" customWidth="1"/>
-    <col min="52" max="52" width="16.3516" style="1" customWidth="1"/>
-    <col min="53" max="53" width="16.3516" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.3516" style="1" customWidth="1"/>
-    <col min="55" max="55" width="16.3516" style="1" customWidth="1"/>
-    <col min="56" max="56" width="16.3516" style="1" customWidth="1"/>
-    <col min="57" max="57" width="16.3516" style="1" customWidth="1"/>
-    <col min="58" max="58" width="16.3516" style="1" customWidth="1"/>
-    <col min="59" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:58" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:58" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s" s="4">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s" s="4">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s" s="4">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s" s="4">
+      <c r="Z2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s" s="4">
+      <c r="AA2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s" s="4">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s" s="4">
+      <c r="AC2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s" s="4">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s" s="4">
+      <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s" s="4">
+      <c r="AF2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s" s="4">
+      <c r="AG2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s" s="4">
+      <c r="AH2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s" s="4">
+      <c r="AI2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s" s="4">
+      <c r="AJ2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s" s="4">
+      <c r="AK2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s" s="4">
+      <c r="AL2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s" s="4">
+      <c r="AM2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s" s="4">
+      <c r="AN2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s" s="4">
+      <c r="AO2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s" s="4">
+      <c r="AP2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s" s="4">
+      <c r="AQ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s" s="4">
+      <c r="AR2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s" s="4">
+      <c r="AS2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s" s="4">
+      <c r="AT2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s" s="4">
+      <c r="AU2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s" s="4">
+      <c r="AV2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s" s="4">
+      <c r="AW2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s" s="4">
+      <c r="AX2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s" s="4">
+      <c r="AY2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s" s="4">
+      <c r="AZ2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s" s="4">
+      <c r="BA2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s" s="4">
+      <c r="BB2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s" s="4">
+      <c r="BC2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s" s="4">
+      <c r="BD2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s" s="4">
+      <c r="BE2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s" s="4">
+      <c r="BF2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="32.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:58" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s" s="7">
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s" s="7">
+      <c r="I3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s" s="7">
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s" s="7">
+      <c r="L3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="R3" t="s" s="7">
+      <c r="Q3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="T3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="U3" t="s" s="7">
+      <c r="S3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="V3" t="s" s="7">
+      <c r="V3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="Y3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="Z3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AA3" t="s" s="7">
+      <c r="W3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" t="s" s="7">
+      <c r="AB3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AD3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AE3" t="s" s="7">
+      <c r="AC3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" t="s" s="7">
+      <c r="AF3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" t="s" s="7">
+      <c r="AG3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" t="s" s="7">
+      <c r="AH3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AJ3" t="s" s="7">
+      <c r="AI3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AL3" t="s" s="7">
+      <c r="AK3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" t="s" s="7">
+      <c r="AM3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AO3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AP3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AQ3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AR3" t="s" s="7">
+      <c r="AN3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AT3" t="s" s="7">
+      <c r="AS3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AU3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AV3" t="s" s="7">
+      <c r="AU3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AX3" t="s" s="7">
+      <c r="AW3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AY3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="AZ3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="BA3" t="s" s="7">
+      <c r="AY3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="BC3" t="s" s="7">
+      <c r="BB3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BD3" t="s" s="7">
+      <c r="BD3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BE3" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="BF3" t="s" s="7">
+      <c r="BE3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" ht="44.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" t="s" s="10">
+    <row r="4" spans="1:58" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" t="s" s="10">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s" s="10">
+      <c r="I4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" t="s" s="10">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" t="s" s="10">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" t="s" s="10">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="V4" t="s" s="10">
+      <c r="V4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" t="s" s="10">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s" s="10">
+      <c r="AB4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" t="s" s="10">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AG4" t="s" s="10">
+      <c r="AG4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AH4" t="s" s="10">
+      <c r="AH4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" t="s" s="10">
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AK4" s="11"/>
-      <c r="AL4" t="s" s="10">
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AM4" t="s" s="10">
+      <c r="AM4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" t="s" s="10">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="11"/>
-      <c r="AV4" t="s" s="10">
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" s="11"/>
-      <c r="AX4" t="s" s="10">
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" t="s" s="10">
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="11"/>
-      <c r="BC4" t="s" s="10">
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
     </row>
-    <row r="5" ht="68.35" customHeight="1">
-      <c r="A5" t="s" s="12">
+    <row r="5" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="13">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s" s="14">
+      <c r="B5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s" s="14">
+      <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s" s="14">
+      <c r="J5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s" s="14">
+      <c r="K5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="P5" t="s" s="14">
+      <c r="P5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="R5" t="s" s="14">
+      <c r="Q5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S5" t="s" s="14">
+      <c r="S5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T5" t="s" s="14">
+      <c r="T5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="U5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="V5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="W5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="X5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="Y5" t="s" s="14">
+      <c r="U5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AA5" t="s" s="14">
+      <c r="Z5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AC5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AD5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AE5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AF5" t="s" s="14">
+      <c r="AB5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AH5" t="s" s="14">
+      <c r="AG5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AJ5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AK5" t="s" s="14">
+      <c r="AI5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AL5" t="s" s="14">
+      <c r="AL5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" t="s" s="14">
+      <c r="AM5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN5" t="s" s="14">
+      <c r="AN5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AO5" t="s" s="14">
+      <c r="AO5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AP5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AQ5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AR5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AS5" t="s" s="14">
+      <c r="AP5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AT5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AU5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AV5" t="s" s="14">
+      <c r="AT5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AW5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="AX5" t="s" s="14">
+      <c r="AW5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY5" t="s" s="14">
+      <c r="AY5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AZ5" t="s" s="14">
+      <c r="AZ5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA5" t="s" s="14">
+      <c r="BA5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB5" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="BC5" t="s" s="14">
+      <c r="BB5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BD5" t="s" s="14">
+      <c r="BD5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BE5" t="s" s="14">
+      <c r="BE5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BF5" t="s" s="14">
+      <c r="BF5" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="68.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" t="s" s="10">
+    <row r="6" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" t="s" s="10">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" t="s" s="10">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" t="s" s="10">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" t="s" s="10">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" t="s" s="10">
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AG6" s="10"/>
-      <c r="AH6" t="s" s="10">
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" t="s" s="10">
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" t="s" s="10">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" t="s" s="10">
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BA6" t="s" s="10">
+      <c r="BA6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BB6" s="11"/>
-      <c r="BC6" t="s" s="10">
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BD6" t="s" s="10">
+      <c r="BD6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
+    <row r="7" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
+    <row r="8" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
+    <row r="9" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
+    <row r="10" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
+    <row r="11" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
-      <c r="BF12" s="19"/>
+    <row r="12" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
+    <row r="13" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="19"/>
-      <c r="BF14" s="19"/>
+    <row r="14" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
+    <row r="15" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
+    <row r="16" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
+    <row r="17" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
+    <row r="18" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
+    <row r="19" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
+    <row r="20" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-      <c r="BF21" s="17"/>
+    <row r="21" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
-      <c r="BF22" s="19"/>
+    <row r="22" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
+    <row r="23" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3545,10 +3851,662 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:U19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14" style="22" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="22" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="29"/>
+    </row>
+    <row r="11" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="29"/>
+    </row>
+    <row r="12" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="R13" s="29"/>
+    </row>
+    <row r="14" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="O17" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="R19" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="181">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -550,6 +550,18 @@
   </si>
   <si>
     <t>function/</t>
+  </si>
+  <si>
+    <t>base 16 bbinary to number</t>
+  </si>
+  <si>
+    <t>to char! FIRST binary</t>
+  </si>
+  <si>
+    <t>bytes to tuple</t>
+  </si>
+  <si>
+    <t>MAKE bitset! binary</t>
   </si>
 </sst>
 </file>
@@ -3864,7 +3876,7 @@
   <dimension ref="B3:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4295,10 +4307,16 @@
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="G14" s="27" t="s">
         <v>121</v>
       </c>
@@ -4306,8 +4324,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="29"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="L14" s="27" t="s">
         <v>127</v>
       </c>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -14,8 +14,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dk</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2:
+TRUE =&gt; 1
+ FALSE =&gt; 0
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="180">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -379,10 +416,6 @@
     <t>FIRST string</t>
   </si>
   <si>
-    <t>TRUE =&gt; 1
- FALSE =&gt; 0</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -552,9 +585,6 @@
     <t>function/</t>
   </si>
   <si>
-    <t>base 16 bbinary to number</t>
-  </si>
-  <si>
     <t>to char! FIRST binary</t>
   </si>
   <si>
@@ -562,13 +592,16 @@
   </si>
   <si>
     <t>MAKE bitset! binary</t>
+  </si>
+  <si>
+    <t>base 16 binary to number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -589,6 +622,19 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3872,11 +3918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3958,7 +4004,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="27" t="b">
         <v>1</v>
@@ -3966,23 +4012,23 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="N4" s="29"/>
       <c r="O4" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" s="29"/>
       <c r="T4" s="26"/>
@@ -4001,7 +4047,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="27" t="b">
         <v>1</v>
@@ -4010,18 +4056,18 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R5" s="29"/>
       <c r="T5" s="29"/>
@@ -4040,7 +4086,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="29"/>
       <c r="G6" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="27" t="b">
         <v>1</v>
@@ -4048,25 +4094,25 @@
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R6" s="29"/>
     </row>
@@ -4079,7 +4125,7 @@
       <c r="E7" s="29"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="27" t="b">
         <v>1</v>
@@ -4088,20 +4134,20 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R7" s="29"/>
     </row>
@@ -4121,16 +4167,16 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R8" s="29"/>
     </row>
@@ -4138,34 +4184,32 @@
       <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>120</v>
-      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R9" s="29"/>
     </row>
@@ -4178,7 +4222,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="27" t="b">
         <v>1</v>
@@ -4187,20 +4231,20 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="27" t="s">
         <v>113</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R10" s="29"/>
     </row>
@@ -4213,7 +4257,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="27" t="b">
         <v>1</v>
@@ -4222,18 +4266,18 @@
       <c r="J11" s="26"/>
       <c r="K11" s="29"/>
       <c r="L11" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" s="29"/>
     </row>
@@ -4246,7 +4290,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="27" t="b">
         <v>1</v>
@@ -4255,20 +4299,20 @@
       <c r="J12" s="29"/>
       <c r="K12" s="26"/>
       <c r="L12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>113</v>
       </c>
       <c r="N12" s="29"/>
       <c r="O12" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" s="29"/>
     </row>
@@ -4281,7 +4325,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="27" t="b">
         <v>1</v>
@@ -4293,13 +4337,13 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R13" s="29"/>
     </row>
@@ -4308,17 +4352,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H14" s="27" t="b">
         <v>1</v>
@@ -4326,21 +4370,21 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="29"/>
       <c r="O14" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R14" s="29"/>
     </row>
@@ -4353,7 +4397,7 @@
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="27" t="b">
         <v>1</v>
@@ -4362,18 +4406,18 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M15" s="29"/>
       <c r="N15" s="26"/>
       <c r="O15" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R15" s="29"/>
     </row>
@@ -4394,7 +4438,7 @@
         <v>118</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="27" t="b">
         <v>1</v>
@@ -4402,13 +4446,13 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>113</v>
@@ -4418,7 +4462,7 @@
         <v>118</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R16" s="29"/>
     </row>
@@ -4433,31 +4477,31 @@
         <v>117</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="27" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>127</v>
-      </c>
       <c r="M17" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N17" s="29"/>
       <c r="O17" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R17" s="29"/>
     </row>
@@ -4470,7 +4514,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="27" t="b">
         <v>1</v>
@@ -4479,15 +4523,15 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="29"/>
@@ -4501,7 +4545,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="27" t="b">
         <v>1</v>
@@ -4510,23 +4554,24 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -20,7 +20,32 @@
     <author>dk</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+truncates decimals if any
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="194">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -373,9 +398,6 @@
     <t>any-string!</t>
   </si>
   <si>
-    <t>number!</t>
-  </si>
-  <si>
     <t>any-list!</t>
   </si>
   <si>
@@ -391,13 +413,7 @@
     <t>convert to seconds</t>
   </si>
   <si>
-    <t>codepoint to number</t>
-  </si>
-  <si>
     <t>direct</t>
-  </si>
-  <si>
-    <t>number to codepoint</t>
   </si>
   <si>
     <t>No conversion required</t>
@@ -410,9 +426,6 @@
 to tuple</t>
   </si>
   <si>
-    <t>LOAD string</t>
-  </si>
-  <si>
     <t>FIRST string</t>
   </si>
   <si>
@@ -422,9 +435,6 @@
     <t>list of datatype names or values to typeset</t>
   </si>
   <si>
-    <t>MAKE bitset! number</t>
-  </si>
-  <si>
     <t>MAKE bitset! char</t>
   </si>
   <si>
@@ -435,9 +445,6 @@
   </si>
   <si>
     <t>UNSET</t>
-  </si>
-  <si>
-    <t>number to binary in base 16</t>
   </si>
   <si>
     <t>codepoint to binary in base 16</t>
@@ -459,9 +466,6 @@
 FALSE =&gt; 'FALSE</t>
   </si>
   <si>
-    <t>FORM number</t>
-  </si>
-  <si>
     <t>FORM time</t>
   </si>
   <si>
@@ -501,9 +505,6 @@
     <t>FORM function</t>
   </si>
   <si>
-    <t>[number]</t>
-  </si>
-  <si>
     <t>[time]</t>
   </si>
   <si>
@@ -549,9 +550,6 @@
     <t>list values to path</t>
   </si>
   <si>
-    <t>number/</t>
-  </si>
-  <si>
     <t>time/</t>
   </si>
   <si>
@@ -594,14 +592,83 @@
     <t>MAKE bitset! binary</t>
   </si>
   <si>
-    <t>base 16 binary to number</t>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>integer to seconds</t>
+  </si>
+  <si>
+    <t>integer  to codepoint</t>
+  </si>
+  <si>
+    <t>MAKE bitset! Integer</t>
+  </si>
+  <si>
+    <t>FORM integer</t>
+  </si>
+  <si>
+    <t>[integer]</t>
+  </si>
+  <si>
+    <t>integer/</t>
+  </si>
+  <si>
+    <t>decimal to seconds with decimals</t>
+  </si>
+  <si>
+    <t>truncate decimal to codepoint</t>
+  </si>
+  <si>
+    <t>decimal in base 16 binary</t>
+  </si>
+  <si>
+    <t>integer in base 16 binary</t>
+  </si>
+  <si>
+    <t>FORM decimal</t>
+  </si>
+  <si>
+    <t>[decimal]</t>
+  </si>
+  <si>
+    <t>decimal/</t>
+  </si>
+  <si>
+    <t>convert to seconds with decimals</t>
+  </si>
+  <si>
+    <t>codepoint to decimal number</t>
+  </si>
+  <si>
+    <t>codepoint to integer</t>
+  </si>
+  <si>
+    <t>base 16 binary as integer</t>
+  </si>
+  <si>
+    <t>base 16 binary as decimal</t>
+  </si>
+  <si>
+    <t>LOAD string as integer</t>
+  </si>
+  <si>
+    <t>LOAD string as decimal</t>
+  </si>
+  <si>
+    <t>LOAD string as time</t>
+  </si>
+  <si>
+    <t>LOAD string as tuple</t>
+  </si>
+  <si>
+    <t>LOAD string as list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -635,6 +702,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -864,18 +944,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -905,6 +973,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,66 +2190,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
     </row>
     <row r="2" spans="1:58" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2346,7 +2426,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2522,7 +2602,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>61</v>
@@ -2622,7 +2702,7 @@
       <c r="BF4" s="9"/>
     </row>
     <row r="5" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2798,7 +2878,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12"/>
       <c r="D6" s="9"/>
@@ -3919,655 +3999,724 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U19"/>
+  <dimension ref="B3:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="13" width="11.85546875" style="22" customWidth="1"/>
-    <col min="14" max="14" width="14" style="22" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="22" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" style="22" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="22" customWidth="1"/>
+    <col min="3" max="14" width="11.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="24" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="27" t="b">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="R5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="27" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="R13" s="29"/>
-    </row>
-    <row r="14" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="2:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="R19" s="29"/>
+      <c r="S20" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Red Datatype Comparis" sheetId="1" r:id="rId1"/>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="R3 MAKE matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -76,8 +77,144 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dk</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+truncates decimals if any
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forbidden if empty cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+R2: empty block
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+R2: empty path
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2:
+TRUE =&gt; 1
+ FALSE =&gt; 0
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="207">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -662,6 +799,47 @@
   </si>
   <si>
     <t>LOAD string as list</t>
+  </si>
+  <si>
+    <t>&lt;&gt; 0 =&gt; TRUE
+= 0 =&gt; FALSE</t>
+  </si>
+  <si>
+    <t>Difference with TO</t>
+  </si>
+  <si>
+    <t>&lt;&gt; 0.0 =&gt; TRUE
+= 0.0 =&gt; FALSE</t>
+  </si>
+  <si>
+    <t>New binary with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New binary with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New string with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New string with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with (binary to integer) slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with (binary to integer) slots preallocated</t>
   </si>
 </sst>
 </file>
@@ -717,7 +895,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +929,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +1073,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -984,6 +1168,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4001,15 +4191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="14" width="11.85546875" style="18" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="18" customWidth="1"/>
     <col min="15" max="15" width="14" style="18" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="18" width="11.85546875" style="18" customWidth="1"/>
@@ -4723,4 +4914,693 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="25"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -21,6 +21,33 @@
     <author>dk</author>
   </authors>
   <commentList>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2:
+&lt;&gt; 0 =&gt; TRUE
+0 =&gt; FALSE
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="0">
       <text>
         <r>
@@ -182,39 +209,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>dk:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In R2:
-TRUE =&gt; 1
- FALSE =&gt; 0
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="208">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -801,45 +801,49 @@
     <t>LOAD string as list</t>
   </si>
   <si>
+    <t>Difference with TO</t>
+  </si>
+  <si>
+    <t>New binary with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New binary with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New string with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New string with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with (binary to integer) slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with (binary to integer) slots preallocated</t>
+  </si>
+  <si>
+    <t>TRUE =&gt; 1
+ FALSE =&gt; 0</t>
+  </si>
+  <si>
     <t>&lt;&gt; 0 =&gt; TRUE
-= 0 =&gt; FALSE</t>
-  </si>
-  <si>
-    <t>Difference with TO</t>
+0 =&gt; FALSE</t>
   </si>
   <si>
     <t>&lt;&gt; 0.0 =&gt; TRUE
-= 0.0 =&gt; FALSE</t>
-  </si>
-  <si>
-    <t>New binary with integer slots preallocated</t>
-  </si>
-  <si>
-    <t>New binary with truncated decimal slots preallocated</t>
-  </si>
-  <si>
-    <t>New string with integer slots preallocated</t>
-  </si>
-  <si>
-    <t>New list with integer slots preallocated</t>
-  </si>
-  <si>
-    <t>New path with integer slots preallocated</t>
-  </si>
-  <si>
-    <t>New string with truncated decimal slots preallocated</t>
-  </si>
-  <si>
-    <t>New list with truncated decimal slots preallocated</t>
-  </si>
-  <si>
-    <t>New path with truncated decimal slots preallocated</t>
-  </si>
-  <si>
-    <t>New list with (binary to integer) slots preallocated</t>
-  </si>
-  <si>
-    <t>New path with (binary to integer) slots preallocated</t>
+0.0 =&gt; FALSE</t>
   </si>
 </sst>
 </file>
@@ -4192,7 +4196,7 @@
   <dimension ref="B3:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4921,7 +4925,7 @@
   <dimension ref="B3:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5011,7 +5015,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -5022,17 +5026,17 @@
         <v>121</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>201</v>
       </c>
       <c r="S4" s="25"/>
       <c r="U4" s="22"/>
@@ -5059,7 +5063,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5068,17 +5072,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>204</v>
       </c>
       <c r="S5" s="25"/>
       <c r="U5" s="25"/>
@@ -5121,7 +5125,7 @@
       <c r="S6" s="25"/>
       <c r="U6" s="33"/>
       <c r="V6" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5226,7 +5230,9 @@
       <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="32" t="s">
+        <v>205</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -5411,10 +5417,10 @@
         <v>136</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S15" s="25"/>
     </row>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Red Datatype Comparis" sheetId="1" r:id="rId1"/>
-    <sheet name="R3 TO matrix" sheetId="2" r:id="rId2"/>
-    <sheet name="R3 MAKE matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
+    <sheet name="R3 MAKE matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="Red TO matrix" sheetId="5" r:id="rId3"/>
+    <sheet name="Red MAKE matrix" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet 1 - Red Datatype Comparis" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -100,6 +102,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: object/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: map/
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -135,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0">
+    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,12 +261,361 @@
         </r>
       </text>
     </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: object/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: map/
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dk</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2:
+&lt;&gt; 0 =&gt; TRUE
+0 =&gt; FALSE
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+truncates decimals if any
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2:
+TRUE =&gt; 1
+ FALSE =&gt; 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: object/
+In R3: name:/value/…</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: map/
+In R3: name:/value/…</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dk</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+truncates decimals if any
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Forbidden if empty cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+R2: empty block
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+R2: empty path
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: object/
+In R3: name:/value/…
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: map/
+In R3: name:/value/…</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="225">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -844,6 +1245,57 @@
   <si>
     <t>&lt;&gt; 0.0 =&gt; TRUE
 0.0 =&gt; FALSE</t>
+  </si>
+  <si>
+    <t>FORM object</t>
+  </si>
+  <si>
+    <t>name:/value/…</t>
+  </si>
+  <si>
+    <t>COPY</t>
+  </si>
+  <si>
+    <t>MAKE map! list</t>
+  </si>
+  <si>
+    <t>New map with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New vector with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>New map with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New vector with truncated decimal slots preallocated</t>
+  </si>
+  <si>
+    <t>New map from list of name/value couples</t>
+  </si>
+  <si>
+    <t>New vector from spec list</t>
+  </si>
+  <si>
+    <t>New object from map</t>
+  </si>
+  <si>
+    <t>map/</t>
+  </si>
+  <si>
+    <t>vector/</t>
+  </si>
+  <si>
+    <t>New list from BODY-OF object</t>
+  </si>
+  <si>
+    <t>New map from BODY-OF object</t>
+  </si>
+  <si>
+    <t>New vector from BODY-OF object</t>
+  </si>
+  <si>
+    <t>object/</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1529,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1162,6 +1614,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1174,11 +1632,8 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2365,6 +2820,3604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" style="18" customWidth="1"/>
+    <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="18" customWidth="1"/>
+    <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+    </row>
+    <row r="22" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="S22" s="25"/>
+      <c r="T22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+    </row>
+    <row r="23" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" style="18" customWidth="1"/>
+    <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+    </row>
+    <row r="22" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
+    <col min="14" max="15" width="14" style="18" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="18" customWidth="1"/>
+    <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+    </row>
+    <row r="17" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+    </row>
+    <row r="20" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+    </row>
+    <row r="21" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="R21" s="28"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+    </row>
+    <row r="22" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+    </row>
+    <row r="23" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2384,66 +6437,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
     </row>
     <row r="2" spans="1:58" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2620,7 +6673,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2796,7 +6849,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>61</v>
@@ -2896,7 +6949,7 @@
       <c r="BF4" s="9"/>
     </row>
     <row r="5" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3072,7 +7125,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12"/>
       <c r="D6" s="9"/>
@@ -4189,1424 +8242,4 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="14" style="18" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="S20" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
-    <col min="14" max="15" width="14" style="18" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="18" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" s="25"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="25"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" s="25"/>
-    </row>
-    <row r="16" spans="2:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="25"/>
-    </row>
-    <row r="20" spans="2:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="242">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -1296,6 +1296,57 @@
   </si>
   <si>
     <t>object/</t>
+  </si>
+  <si>
+    <t>any-float!</t>
+  </si>
+  <si>
+    <t>any-float to seconds with decimals</t>
+  </si>
+  <si>
+    <t>truncate any-float to codepoint</t>
+  </si>
+  <si>
+    <t>any-float in base 16 binary</t>
+  </si>
+  <si>
+    <t>FORM any-float</t>
+  </si>
+  <si>
+    <t>[any-float]</t>
+  </si>
+  <si>
+    <t>any-float/</t>
+  </si>
+  <si>
+    <t>codepoint to any-float number</t>
+  </si>
+  <si>
+    <t>base 16 binary as any-float</t>
+  </si>
+  <si>
+    <t>LOAD string as any-float</t>
+  </si>
+  <si>
+    <t>New binary with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>New string with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>New list with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>New path with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>truncated any-float to codepoint</t>
+  </si>
+  <si>
+    <t>New map with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>New vector with truncated any-float slots preallocated</t>
   </si>
 </sst>
 </file>
@@ -4624,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4648,7 +4699,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -4758,17 +4809,17 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -4784,17 +4835,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="23" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -4854,7 +4905,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -5162,7 +5213,7 @@
         <v>187</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -5248,7 +5299,7 @@
         <v>189</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>191</v>
@@ -5539,7 +5590,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5549,7 +5600,7 @@
     <col min="3" max="13" width="11.85546875" style="18" customWidth="1"/>
     <col min="14" max="15" width="14" style="18" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="18" customWidth="1"/>
     <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
   </cols>
@@ -5562,7 +5613,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -5676,17 +5727,17 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -5702,25 +5753,25 @@
         <v>121</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="28" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="27" t="s">
@@ -5776,7 +5827,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -6052,7 +6103,7 @@
         <v>187</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -6132,7 +6183,7 @@
         <v>189</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>191</v>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -46,6 +46,31 @@
 In R2:
 &lt;&gt; 0 =&gt; TRUE
 0 =&gt; FALSE
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounded up to multiple of 8
 </t>
         </r>
       </text>
@@ -162,6 +187,31 @@
     <author>dk</author>
   </authors>
   <commentList>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounded up to multiple of 8
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="0">
       <text>
         <r>
@@ -348,6 +398,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounded up to multiple of 8
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="0">
       <text>
         <r>
@@ -460,6 +535,31 @@
     <author>dk</author>
   </authors>
   <commentList>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rounded up to multiple of 8
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="0">
       <text>
         <r>
@@ -1139,9 +1239,6 @@
     <t>integer  to codepoint</t>
   </si>
   <si>
-    <t>MAKE bitset! Integer</t>
-  </si>
-  <si>
     <t>FORM integer</t>
   </si>
   <si>
@@ -1304,9 +1401,6 @@
     <t>any-float to seconds with decimals</t>
   </si>
   <si>
-    <t>truncate any-float to codepoint</t>
-  </si>
-  <si>
     <t>any-float in base 16 binary</t>
   </si>
   <si>
@@ -1347,6 +1441,12 @@
   </si>
   <si>
     <t>New vector with truncated any-float slots preallocated</t>
+  </si>
+  <si>
+    <t>New bitset with integer slots preallocated</t>
+  </si>
+  <si>
+    <t>MAKE tuple! list</t>
   </si>
 </sst>
 </file>
@@ -2874,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:Q23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2979,23 +3079,23 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>176</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
@@ -3015,10 +3115,10 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>178</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -3034,17 +3134,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>183</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -3063,7 +3163,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -3101,10 +3201,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -3346,7 +3446,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>121</v>
@@ -3409,10 +3509,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -3436,7 +3536,7 @@
         <v>121</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
@@ -3495,19 +3595,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -3530,10 +3630,10 @@
         <v>111</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>154</v>
@@ -3552,7 +3652,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="23" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>116</v>
@@ -3578,7 +3678,7 @@
         <v>138</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R18" s="23" t="s">
         <v>155</v>
@@ -3586,7 +3686,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V18" s="25"/>
     </row>
@@ -3620,7 +3720,7 @@
         <v>152</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -3688,13 +3788,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>208</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -3728,15 +3828,15 @@
         <v>140</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V22" s="25"/>
     </row>
@@ -3767,10 +3867,10 @@
         <v>140</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -3788,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:Q23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3888,36 +3988,36 @@
         <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="26" t="s">
@@ -3933,17 +4033,17 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>178</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -3952,25 +4052,25 @@
         <v>121</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="27" t="s">
@@ -3985,7 +4085,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -4015,7 +4115,7 @@
       <c r="V6" s="25"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,10 +4123,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -4130,7 +4230,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -4299,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -4331,10 +4431,10 @@
         <v>136</v>
       </c>
       <c r="Q15" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -4379,19 +4479,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -4415,7 +4515,7 @@
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>154</v>
@@ -4466,10 +4566,10 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4564,13 +4664,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>208</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -4607,17 +4707,17 @@
         <v>140</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="34"/>
@@ -4651,10 +4751,10 @@
         <v>140</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -4675,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4699,7 +4799,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -4780,23 +4880,23 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>176</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
@@ -4809,17 +4909,17 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -4835,17 +4935,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -4864,7 +4964,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -4902,10 +5002,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -5147,7 +5247,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>121</v>
@@ -5210,10 +5310,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -5237,7 +5337,7 @@
         <v>121</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
@@ -5296,19 +5396,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -5331,10 +5431,10 @@
         <v>111</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>154</v>
@@ -5353,7 +5453,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="23" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>116</v>
@@ -5379,7 +5479,7 @@
         <v>138</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R18" s="23" t="s">
         <v>155</v>
@@ -5387,7 +5487,7 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V18" s="25"/>
     </row>
@@ -5421,7 +5521,7 @@
         <v>152</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -5489,13 +5589,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -5529,15 +5629,15 @@
         <v>140</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V22" s="25"/>
     </row>
@@ -5568,10 +5668,10 @@
         <v>140</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -5589,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5602,7 +5702,9 @@
     <col min="16" max="16" width="13.7109375" style="18" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" style="18" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="18" customWidth="1"/>
-    <col min="19" max="22" width="13.28515625" style="18" customWidth="1"/>
+    <col min="19" max="20" width="13.28515625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -5689,36 +5791,36 @@
         <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="26" t="s">
@@ -5727,24 +5829,24 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5753,25 +5855,25 @@
         <v>121</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="27" t="s">
@@ -5786,7 +5888,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -5816,7 +5918,7 @@
       <c r="V6" s="25"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5824,10 +5926,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -5931,7 +6033,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6100,10 +6202,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
@@ -6132,10 +6234,10 @@
         <v>136</v>
       </c>
       <c r="Q15" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -6180,19 +6282,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -6216,7 +6318,7 @@
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>154</v>
@@ -6267,10 +6369,10 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6365,10 +6467,10 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R21" s="28"/>
       <c r="S21" s="25"/>
@@ -6406,15 +6508,15 @@
         <v>140</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R22" s="28"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="34"/>
@@ -6448,10 +6550,10 @@
         <v>140</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -1771,6 +1771,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,9 +1785,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4676,9 +4676,9 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
@@ -4720,9 +4720,9 @@
         <v>209</v>
       </c>
       <c r="V22" s="25"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
     </row>
     <row r="23" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
@@ -4760,9 +4760,9 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,7 +4776,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6477,9 +6477,9 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
@@ -6519,9 +6519,9 @@
         <v>209</v>
       </c>
       <c r="V22" s="25"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
     </row>
     <row r="23" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
@@ -6559,9 +6559,9 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6590,66 +6590,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
     </row>
     <row r="2" spans="1:58" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -6826,7 +6826,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -7002,7 +7002,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>61</v>
@@ -7102,7 +7102,7 @@
       <c r="BF4" s="9"/>
     </row>
     <row r="5" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -7278,7 +7278,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12"/>
       <c r="D6" s="9"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -123,6 +123,31 @@
 In R2:
 TRUE =&gt; 1
  FALSE =&gt; 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: forbidden
 </t>
         </r>
       </text>
@@ -308,6 +333,30 @@
           <t xml:space="preserve">
 R2: empty path
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+In R2: forbidden</t>
         </r>
       </text>
     </comment>
@@ -2975,7 +3024,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3888,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4775,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="242">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -3024,7 +3024,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3494,9 +3494,7 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="22" t="s">
-        <v>209</v>
-      </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="23" t="s">
         <v>121</v>
       </c>
@@ -3937,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4394,7 +4392,7 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="23" t="s">
         <v>121</v>
       </c>
@@ -4824,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5739,7 +5737,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6197,7 +6195,9 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="M13" s="23" t="s">
         <v>121</v>
       </c>
@@ -6277,7 +6277,9 @@
       <c r="M15" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="22"/>
+      <c r="N15" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
         <v>136</v>
@@ -6365,7 +6367,9 @@
       <c r="O17" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="22"/>
+      <c r="P17" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="Q17" s="23" t="s">
         <v>192</v>
       </c>
@@ -6411,7 +6415,9 @@
       <c r="P18" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="R18" s="23" t="s">
         <v>155</v>
       </c>
@@ -6453,7 +6459,9 @@
       <c r="Q19" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="R19" s="22"/>
+      <c r="R19" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="243">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>MAKE tuple! list</t>
+  </si>
+  <si>
+    <t>LOAD string as any-word</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3027,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3674,7 +3677,7 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>209</v>
@@ -3936,7 +3939,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4558,7 +4561,7 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="23" t="s">
@@ -4822,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5475,7 +5478,7 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>209</v>
@@ -5736,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6365,7 +6368,7 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>209</v>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -1177,9 +1177,6 @@
     <t>FORM unset (empty string)</t>
   </si>
   <si>
-    <t>FORM binary (decode UTF-8)</t>
-  </si>
-  <si>
     <t>FORM word</t>
   </si>
   <si>
@@ -1499,6 +1496,9 @@
   </si>
   <si>
     <t>LOAD string as any-word</t>
+  </si>
+  <si>
+    <t>New string from binary (decode UTF-8)</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3116,10 +3116,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="23" t="s">
@@ -3131,23 +3131,23 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
@@ -3163,14 +3163,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -3186,17 +3186,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>181</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>182</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -3215,7 +3215,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -3238,10 +3238,10 @@
         <v>128</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
@@ -3253,10 +3253,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -3285,10 +3285,10 @@
         <v>129</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
@@ -3324,10 +3324,10 @@
         <v>130</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -3357,10 +3357,10 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
@@ -3394,10 +3394,10 @@
         <v>131</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -3433,10 +3433,10 @@
         <v>132</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -3470,10 +3470,10 @@
         <v>134</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -3509,10 +3509,10 @@
         <v>133</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
@@ -3544,10 +3544,10 @@
         <v>135</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
@@ -3559,17 +3559,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>187</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>116</v>
@@ -3580,23 +3580,23 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -3627,13 +3627,13 @@
       <c r="N16" s="25"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
@@ -3645,19 +3645,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -3677,16 +3677,16 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -3702,7 +3702,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>116</v>
@@ -3725,18 +3725,18 @@
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V18" s="25"/>
     </row>
@@ -3764,13 +3764,13 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -3801,13 +3801,13 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -3838,13 +3838,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -3875,18 +3875,18 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V22" s="25"/>
     </row>
@@ -3914,13 +3914,13 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -3939,7 +3939,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4028,46 +4028,46 @@
         <v>111</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="26" t="s">
@@ -4079,21 +4079,21 @@
         <v>14</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -4102,25 +4102,25 @@
         <v>121</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="27" t="s">
@@ -4135,7 +4135,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -4165,7 +4165,7 @@
       <c r="V6" s="25"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4173,10 +4173,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -4280,7 +4280,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -4449,17 +4449,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>187</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>116</v>
@@ -4470,7 +4470,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>121</v>
@@ -4478,13 +4478,13 @@
       <c r="N15" s="22"/>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>203</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -4515,7 +4515,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
@@ -4529,19 +4529,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -4561,14 +4561,14 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -4607,19 +4607,19 @@
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4646,10 +4646,10 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="25"/>
@@ -4681,7 +4681,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
@@ -4714,13 +4714,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -4754,20 +4754,20 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="30"/>
@@ -4798,13 +4798,13 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -4826,7 +4826,7 @@
   <dimension ref="B3:Y23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4849,7 +4849,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -4915,10 +4915,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="23" t="s">
@@ -4930,23 +4930,23 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
@@ -4959,17 +4959,17 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
@@ -4985,17 +4985,17 @@
         <v>121</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -5014,7 +5014,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -5037,10 +5037,10 @@
         <v>128</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
@@ -5052,10 +5052,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -5084,10 +5084,10 @@
         <v>129</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
@@ -5123,10 +5123,10 @@
         <v>130</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -5156,10 +5156,10 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
@@ -5193,10 +5193,10 @@
         <v>131</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -5232,10 +5232,10 @@
         <v>132</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -5269,10 +5269,10 @@
         <v>134</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -5297,7 +5297,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>121</v>
@@ -5310,10 +5310,10 @@
         <v>133</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
@@ -5345,10 +5345,10 @@
         <v>135</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
@@ -5360,17 +5360,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>116</v>
@@ -5381,23 +5381,23 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -5428,13 +5428,13 @@
       <c r="N16" s="25"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
@@ -5446,19 +5446,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -5478,16 +5478,16 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -5503,7 +5503,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>116</v>
@@ -5526,18 +5526,18 @@
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V18" s="25"/>
     </row>
@@ -5565,13 +5565,13 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -5602,13 +5602,13 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -5639,13 +5639,13 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -5676,18 +5676,18 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R22" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V22" s="25"/>
     </row>
@@ -5715,13 +5715,13 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -5739,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5765,7 +5765,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>50</v>
@@ -5831,46 +5831,46 @@
         <v>111</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>172</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="R4" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="V4" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="X4" s="22"/>
       <c r="Y4" s="26" t="s">
@@ -5879,24 +5879,24 @@
     </row>
     <row r="5" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -5905,25 +5905,25 @@
         <v>121</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>236</v>
       </c>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="V5" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>239</v>
       </c>
       <c r="X5" s="25"/>
       <c r="Y5" s="27" t="s">
@@ -5938,7 +5938,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="25"/>
@@ -5968,7 +5968,7 @@
       <c r="V6" s="25"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5976,10 +5976,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>
@@ -6083,7 +6083,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6199,7 +6199,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>121</v>
@@ -6254,17 +6254,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>116</v>
@@ -6275,23 +6275,23 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>121</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>203</v>
       </c>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -6322,7 +6322,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
@@ -6336,19 +6336,19 @@
         <v>105</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>116</v>
@@ -6368,16 +6368,16 @@
         <v>124</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -6416,21 +6416,21 @@
       </c>
       <c r="O18" s="25"/>
       <c r="P18" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="V18" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6457,13 +6457,13 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -6494,7 +6494,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
@@ -6527,10 +6527,10 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R21" s="28"/>
       <c r="S21" s="25"/>
@@ -6565,18 +6565,18 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R22" s="28"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="30"/>
@@ -6607,13 +6607,13 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>

--- a/docs/to-datatype-matrix.xlsx
+++ b/docs/to-datatype-matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R3 TO matrix" sheetId="2" r:id="rId1"/>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4825,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
